--- a/src/test/java/day13_excelOtomasyonu/ulkeler.xlsx
+++ b/src/test/java/day13_excelOtomasyonu/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1744,6 +1744,18 @@
   </si>
   <si>
     <t>Nufus</t>
+  </si>
+  <si>
+    <t>Nufuslar</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1048576"/>
@@ -2198,6 +2210,9 @@
       <c r="E1" t="s" s="0">
         <v>573</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>574</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2215,6 +2230,9 @@
       <c r="E2" t="n" s="0">
         <v>150000.0</v>
       </c>
+      <c r="F2" t="s" s="0">
+        <v>575</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2330,6 +2348,9 @@
       <c r="E10" t="n" s="0">
         <v>250000.0</v>
       </c>
+      <c r="F10" t="s" s="0">
+        <v>576</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2402,6 +2423,9 @@
       </c>
       <c r="E15" t="n" s="0">
         <v>54000.0</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
